--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcerersoy\Dropbox\Ersin Research\CFP_Defect_Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41166775-3482-4175-BF35-F197D25D48D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE80912-70F7-46EE-A392-F7544CEB8745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F767E673-BAE0-4068-870A-45F575418110}"/>
   </bookViews>
@@ -39,21 +39,6 @@
     <t>Jira Id</t>
   </si>
   <si>
-    <t>Task CFP</t>
-  </si>
-  <si>
-    <t>Task E</t>
-  </si>
-  <si>
-    <t>Task X</t>
-  </si>
-  <si>
-    <t>Task W</t>
-  </si>
-  <si>
-    <t>Task R</t>
-  </si>
-  <si>
     <t>Backend Seniority</t>
   </si>
   <si>
@@ -1108,6 +1093,21 @@
   </si>
   <si>
     <t>T-330</t>
+  </si>
+  <si>
+    <t>Requirement CFP</t>
+  </si>
+  <si>
+    <t>Requirement E</t>
+  </si>
+  <si>
+    <t>Requirement X</t>
+  </si>
+  <si>
+    <t>Requirement W</t>
+  </si>
+  <si>
+    <t>Requirement R</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1463,7 @@
   <dimension ref="A1:AB331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1498,90 +1498,90 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>353</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>354</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>355</v>
       </c>
       <c r="E1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>26</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>75</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>94</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <v>15</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B33">
         <v>26</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -4763,7 +4763,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B39">
         <v>11</v>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>9</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -6569,7 +6569,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -6741,7 +6741,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B63">
         <v>16</v>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B65">
         <v>35</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -7171,7 +7171,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B67">
         <v>11</v>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -7429,7 +7429,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -7859,7 +7859,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -8117,7 +8117,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -8289,7 +8289,7 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -8375,7 +8375,7 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -8461,7 +8461,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -8719,7 +8719,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -8891,7 +8891,7 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B88">
         <v>24</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B90">
         <v>40</v>
@@ -9235,7 +9235,7 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -9321,7 +9321,7 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B94">
         <v>10</v>
@@ -9579,7 +9579,7 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B95">
         <v>10</v>
@@ -9665,7 +9665,7 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -9837,7 +9837,7 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -9923,7 +9923,7 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -10009,7 +10009,7 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -10095,7 +10095,7 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B101">
         <v>21</v>
@@ -10181,7 +10181,7 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B102">
         <v>8</v>
@@ -10267,7 +10267,7 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B103">
         <v>8</v>
@@ -10353,7 +10353,7 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -10439,7 +10439,7 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -10525,7 +10525,7 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -10611,7 +10611,7 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -10697,7 +10697,7 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -10783,7 +10783,7 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -10869,7 +10869,7 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B110">
         <v>7</v>
@@ -10955,7 +10955,7 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B111">
         <v>4</v>
@@ -11041,7 +11041,7 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -11127,7 +11127,7 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -11213,7 +11213,7 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B114">
         <v>56</v>
@@ -11299,7 +11299,7 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B115">
         <v>6</v>
@@ -11385,7 +11385,7 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -11471,7 +11471,7 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B117">
         <v>26</v>
@@ -11557,7 +11557,7 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B118">
         <v>6</v>
@@ -11643,7 +11643,7 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B119">
         <v>20</v>
@@ -11729,7 +11729,7 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B120">
         <v>20</v>
@@ -11815,7 +11815,7 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B122">
         <v>10</v>
@@ -11987,7 +11987,7 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -12159,7 +12159,7 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -12245,7 +12245,7 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -12331,7 +12331,7 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B127">
         <v>8</v>
@@ -12417,7 +12417,7 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B128">
         <v>9</v>
@@ -12503,7 +12503,7 @@
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -12675,7 +12675,7 @@
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -12847,7 +12847,7 @@
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B133">
         <v>30</v>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B134">
         <v>28</v>
@@ -13019,7 +13019,7 @@
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B135">
         <v>83</v>
@@ -13105,7 +13105,7 @@
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B136">
         <v>82</v>
@@ -13191,7 +13191,7 @@
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B137">
         <v>78</v>
@@ -13277,7 +13277,7 @@
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -13363,7 +13363,7 @@
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B139">
         <v>15</v>
@@ -13449,7 +13449,7 @@
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B140">
         <v>6</v>
@@ -13535,7 +13535,7 @@
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B141">
         <v>6</v>
@@ -13621,7 +13621,7 @@
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -13707,7 +13707,7 @@
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -13793,7 +13793,7 @@
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -13879,7 +13879,7 @@
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B145">
         <v>6</v>
@@ -13965,7 +13965,7 @@
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -14051,7 +14051,7 @@
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -14137,7 +14137,7 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -14223,7 +14223,7 @@
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B149">
         <v>3</v>
@@ -14309,7 +14309,7 @@
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B150">
         <v>3</v>
@@ -14395,7 +14395,7 @@
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B151">
         <v>4</v>
@@ -14481,7 +14481,7 @@
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -14567,7 +14567,7 @@
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -14653,7 +14653,7 @@
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B154">
         <v>3</v>
@@ -14739,7 +14739,7 @@
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -14825,7 +14825,7 @@
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B156">
         <v>38</v>
@@ -14911,7 +14911,7 @@
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -14997,7 +14997,7 @@
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B158">
         <v>3</v>
@@ -15083,7 +15083,7 @@
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B159">
         <v>5</v>
@@ -15169,7 +15169,7 @@
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -15255,7 +15255,7 @@
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B161">
         <v>5</v>
@@ -15341,7 +15341,7 @@
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -15427,7 +15427,7 @@
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B163">
         <v>5</v>
@@ -15513,7 +15513,7 @@
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B164">
         <v>8</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B165">
         <v>9</v>
@@ -15685,7 +15685,7 @@
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B166">
         <v>7</v>
@@ -15771,7 +15771,7 @@
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B167">
         <v>5</v>
@@ -15857,7 +15857,7 @@
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -15943,7 +15943,7 @@
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -16029,7 +16029,7 @@
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B170">
         <v>2</v>
@@ -16115,7 +16115,7 @@
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B171">
         <v>20</v>
@@ -16201,7 +16201,7 @@
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B172">
         <v>7</v>
@@ -16287,7 +16287,7 @@
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B173">
         <v>7</v>
@@ -16373,7 +16373,7 @@
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B174">
         <v>15</v>
@@ -16459,7 +16459,7 @@
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B175">
         <v>28</v>
@@ -16545,7 +16545,7 @@
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B176">
         <v>11</v>
@@ -16631,7 +16631,7 @@
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B177">
         <v>2</v>
@@ -16717,7 +16717,7 @@
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -16803,7 +16803,7 @@
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B179">
         <v>5</v>
@@ -16889,7 +16889,7 @@
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -16975,7 +16975,7 @@
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B181">
         <v>2</v>
@@ -17061,7 +17061,7 @@
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -17147,7 +17147,7 @@
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -17233,7 +17233,7 @@
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -17319,7 +17319,7 @@
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B185">
         <v>32</v>
@@ -17405,7 +17405,7 @@
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B186">
         <v>35</v>
@@ -17491,7 +17491,7 @@
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B187">
         <v>17</v>
@@ -17577,7 +17577,7 @@
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B188">
         <v>2</v>
@@ -17663,7 +17663,7 @@
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B189">
         <v>42</v>
@@ -17749,7 +17749,7 @@
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B190">
         <v>7</v>
@@ -17835,7 +17835,7 @@
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B191">
         <v>6</v>
@@ -17921,7 +17921,7 @@
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -18007,7 +18007,7 @@
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B193">
         <v>2</v>
@@ -18093,7 +18093,7 @@
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -18179,7 +18179,7 @@
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -18265,7 +18265,7 @@
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B196">
         <v>6</v>
@@ -18351,7 +18351,7 @@
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -18437,7 +18437,7 @@
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B198">
         <v>5</v>
@@ -18523,7 +18523,7 @@
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B199">
         <v>6</v>
@@ -18609,7 +18609,7 @@
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B200">
         <v>4</v>
@@ -18695,7 +18695,7 @@
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B201">
         <v>4</v>
@@ -18781,7 +18781,7 @@
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B202">
         <v>4</v>
@@ -18867,7 +18867,7 @@
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -18953,7 +18953,7 @@
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B204">
         <v>4</v>
@@ -19039,7 +19039,7 @@
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -19125,7 +19125,7 @@
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B206">
         <v>13</v>
@@ -19211,7 +19211,7 @@
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -19297,7 +19297,7 @@
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B208">
         <v>10</v>
@@ -19383,7 +19383,7 @@
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B209">
         <v>3</v>
@@ -19469,7 +19469,7 @@
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -19555,7 +19555,7 @@
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -19641,7 +19641,7 @@
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B212">
         <v>20</v>
@@ -19727,7 +19727,7 @@
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B213">
         <v>10</v>
@@ -19813,7 +19813,7 @@
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B214">
         <v>3</v>
@@ -19899,7 +19899,7 @@
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B215">
         <v>3</v>
@@ -19985,7 +19985,7 @@
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B216">
         <v>6</v>
@@ -20071,7 +20071,7 @@
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B217">
         <v>10</v>
@@ -20157,7 +20157,7 @@
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B218">
         <v>40</v>
@@ -20243,7 +20243,7 @@
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B219">
         <v>3</v>
@@ -20329,7 +20329,7 @@
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -20415,7 +20415,7 @@
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -20501,7 +20501,7 @@
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B222">
         <v>60</v>
@@ -20587,7 +20587,7 @@
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B223">
         <v>20</v>
@@ -20673,7 +20673,7 @@
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B224">
         <v>8</v>
@@ -20759,7 +20759,7 @@
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -20845,7 +20845,7 @@
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -20931,7 +20931,7 @@
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B227">
         <v>20</v>
@@ -21017,7 +21017,7 @@
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B228">
         <v>8</v>
@@ -21103,7 +21103,7 @@
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -21189,7 +21189,7 @@
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -21275,7 +21275,7 @@
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -21361,7 +21361,7 @@
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -21447,7 +21447,7 @@
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -21533,7 +21533,7 @@
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B234">
         <v>2</v>
@@ -21619,7 +21619,7 @@
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B235">
         <v>11</v>
@@ -21705,7 +21705,7 @@
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -21791,7 +21791,7 @@
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B237">
         <v>15</v>
@@ -21877,7 +21877,7 @@
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B238">
         <v>13</v>
@@ -21963,7 +21963,7 @@
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B239">
         <v>2</v>
@@ -22049,7 +22049,7 @@
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B240">
         <v>5</v>
@@ -22135,7 +22135,7 @@
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -22221,7 +22221,7 @@
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B242">
         <v>10</v>
@@ -22307,7 +22307,7 @@
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B243">
         <v>7</v>
@@ -22393,7 +22393,7 @@
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B244">
         <v>7</v>
@@ -22479,7 +22479,7 @@
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B245">
         <v>8</v>
@@ -22565,7 +22565,7 @@
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B246">
         <v>20</v>
@@ -22651,7 +22651,7 @@
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B247">
         <v>19</v>
@@ -22737,7 +22737,7 @@
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B248">
         <v>26</v>
@@ -22823,7 +22823,7 @@
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B249">
         <v>27</v>
@@ -22909,7 +22909,7 @@
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B250">
         <v>2</v>
@@ -22995,7 +22995,7 @@
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B251">
         <v>10</v>
@@ -23081,7 +23081,7 @@
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B252">
         <v>9</v>
@@ -23167,7 +23167,7 @@
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B253">
         <v>7</v>
@@ -23253,7 +23253,7 @@
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B254">
         <v>7</v>
@@ -23339,7 +23339,7 @@
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B255">
         <v>7</v>
@@ -23425,7 +23425,7 @@
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B256">
         <v>5</v>
@@ -23511,7 +23511,7 @@
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -23597,7 +23597,7 @@
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -23683,7 +23683,7 @@
     </row>
     <row r="259" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -23769,7 +23769,7 @@
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -23855,7 +23855,7 @@
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -23941,7 +23941,7 @@
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -24027,7 +24027,7 @@
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B263">
         <v>3</v>
@@ -24113,7 +24113,7 @@
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -24199,7 +24199,7 @@
     </row>
     <row r="265" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -24285,7 +24285,7 @@
     </row>
     <row r="266" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B266">
         <v>2</v>
@@ -24371,7 +24371,7 @@
     </row>
     <row r="267" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B267">
         <v>2</v>
@@ -24457,7 +24457,7 @@
     </row>
     <row r="268" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B268">
         <v>2</v>
@@ -24543,7 +24543,7 @@
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -24629,7 +24629,7 @@
     </row>
     <row r="270" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B270">
         <v>2</v>
@@ -24715,7 +24715,7 @@
     </row>
     <row r="271" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B271">
         <v>2</v>
@@ -24801,7 +24801,7 @@
     </row>
     <row r="272" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -24887,7 +24887,7 @@
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B273">
         <v>2</v>
@@ -24973,7 +24973,7 @@
     </row>
     <row r="274" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -25059,7 +25059,7 @@
     </row>
     <row r="275" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B275">
         <v>3</v>
@@ -25145,7 +25145,7 @@
     </row>
     <row r="276" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B276">
         <v>2</v>
@@ -25231,7 +25231,7 @@
     </row>
     <row r="277" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -25317,7 +25317,7 @@
     </row>
     <row r="278" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -25403,7 +25403,7 @@
     </row>
     <row r="279" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -25489,7 +25489,7 @@
     </row>
     <row r="280" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B280">
         <v>4</v>
@@ -25575,7 +25575,7 @@
     </row>
     <row r="281" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B281">
         <v>8</v>
@@ -25661,7 +25661,7 @@
     </row>
     <row r="282" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B282">
         <v>7</v>
@@ -25747,7 +25747,7 @@
     </row>
     <row r="283" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B283">
         <v>3</v>
@@ -25833,7 +25833,7 @@
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B284">
         <v>3</v>
@@ -25919,7 +25919,7 @@
     </row>
     <row r="285" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B285">
         <v>15</v>
@@ -26005,7 +26005,7 @@
     </row>
     <row r="286" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -26091,7 +26091,7 @@
     </row>
     <row r="287" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B287">
         <v>16</v>
@@ -26177,7 +26177,7 @@
     </row>
     <row r="288" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -26263,7 +26263,7 @@
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -26349,7 +26349,7 @@
     </row>
     <row r="290" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B290">
         <v>7</v>
@@ -26435,7 +26435,7 @@
     </row>
     <row r="291" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B291">
         <v>4</v>
@@ -26521,7 +26521,7 @@
     </row>
     <row r="292" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -26607,7 +26607,7 @@
     </row>
     <row r="293" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -26693,7 +26693,7 @@
     </row>
     <row r="294" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B294">
         <v>4</v>
@@ -26779,7 +26779,7 @@
     </row>
     <row r="295" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B295">
         <v>8</v>
@@ -26865,7 +26865,7 @@
     </row>
     <row r="296" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B296">
         <v>31</v>
@@ -26951,7 +26951,7 @@
     </row>
     <row r="297" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -27037,7 +27037,7 @@
     </row>
     <row r="298" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -27123,7 +27123,7 @@
     </row>
     <row r="299" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B299">
         <v>2</v>
@@ -27209,7 +27209,7 @@
     </row>
     <row r="300" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -27295,7 +27295,7 @@
     </row>
     <row r="301" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B301">
         <v>2</v>
@@ -27381,7 +27381,7 @@
     </row>
     <row r="302" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B302">
         <v>5</v>
@@ -27467,7 +27467,7 @@
     </row>
     <row r="303" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B303">
         <v>5</v>
@@ -27553,7 +27553,7 @@
     </row>
     <row r="304" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -27639,7 +27639,7 @@
     </row>
     <row r="305" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B305">
         <v>25</v>
@@ -27725,7 +27725,7 @@
     </row>
     <row r="306" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B306">
         <v>5</v>
@@ -27811,7 +27811,7 @@
     </row>
     <row r="307" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B307">
         <v>55</v>
@@ -27897,7 +27897,7 @@
     </row>
     <row r="308" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B308">
         <v>54</v>
@@ -27983,7 +27983,7 @@
     </row>
     <row r="309" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -28069,7 +28069,7 @@
     </row>
     <row r="310" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -28155,7 +28155,7 @@
     </row>
     <row r="311" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -28241,7 +28241,7 @@
     </row>
     <row r="312" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B312">
         <v>23</v>
@@ -28327,7 +28327,7 @@
     </row>
     <row r="313" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -28413,7 +28413,7 @@
     </row>
     <row r="314" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -28499,7 +28499,7 @@
     </row>
     <row r="315" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B315">
         <v>5</v>
@@ -28585,7 +28585,7 @@
     </row>
     <row r="316" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B316">
         <v>10</v>
@@ -28671,7 +28671,7 @@
     </row>
     <row r="317" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B317">
         <v>18</v>
@@ -28757,7 +28757,7 @@
     </row>
     <row r="318" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -28843,7 +28843,7 @@
     </row>
     <row r="319" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B319">
         <v>80</v>
@@ -28929,7 +28929,7 @@
     </row>
     <row r="320" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B320">
         <v>12</v>
@@ -29015,7 +29015,7 @@
     </row>
     <row r="321" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B321">
         <v>6</v>
@@ -29101,7 +29101,7 @@
     </row>
     <row r="322" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B322">
         <v>3</v>
@@ -29187,7 +29187,7 @@
     </row>
     <row r="323" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B323">
         <v>4</v>
@@ -29273,7 +29273,7 @@
     </row>
     <row r="324" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B324">
         <v>2</v>
@@ -29359,7 +29359,7 @@
     </row>
     <row r="325" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B325">
         <v>12</v>
@@ -29445,7 +29445,7 @@
     </row>
     <row r="326" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -29531,7 +29531,7 @@
     </row>
     <row r="327" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B327">
         <v>45</v>
@@ -29617,7 +29617,7 @@
     </row>
     <row r="328" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B328">
         <v>45</v>
@@ -29703,7 +29703,7 @@
     </row>
     <row r="329" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B329">
         <v>9</v>
@@ -29789,7 +29789,7 @@
     </row>
     <row r="330" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B330">
         <v>29</v>
@@ -29875,7 +29875,7 @@
     </row>
     <row r="331" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B331">
         <v>48</v>
@@ -29979,6 +29979,7 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{892744BC-FBDD-49AA-9AD2-F86CA21E0873}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
+    <ds:schemaRef ds:uri=""/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>